--- a/Celda Robotizada/Analisis de procesos.xlsx
+++ b/Celda Robotizada/Analisis de procesos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{25C22C08-EB93-47F0-80CD-A988F6D3DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89C74A4-C66D-4DD5-A0DE-7B5B2C8D65A5}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{25C22C08-EB93-47F0-80CD-A988F6D3DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA9DA7C-30DE-4E50-B09F-FF0B39869D5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{22BB1450-C3C2-4DDC-9449-9CB4BDC15317}"/>
   </bookViews>
@@ -319,41 +319,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,23 +344,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,6 +463,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,161 +784,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="21">
         <v>45017</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="12">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="5">
         <v>640</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
         <v>180</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="23">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13">
         <v>2178</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="5">
         <v>120</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="10">
         <v>0.55172413793103448</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="10">
         <v>20.689655172413794</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="10">
         <v>49.305507637292457</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="10">
         <v>0.54811205846528621</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="10">
         <v>20.554202192448233</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="10">
         <v>49.148579780755178</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="10">
         <v>0.56863054809666724</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="10">
         <v>21.323645553625024</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="10">
         <v>49.873424419522991</v>
       </c>
     </row>
@@ -951,7 +948,7 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Celda Robotizada/Analisis de procesos.xlsx
+++ b/Celda Robotizada/Analisis de procesos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{25C22C08-EB93-47F0-80CD-A988F6D3DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA9DA7C-30DE-4E50-B09F-FF0B39869D5D}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{25C22C08-EB93-47F0-80CD-A988F6D3DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400ED4DE-2C6B-47AF-A6D3-11FF6906E3C2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{22BB1450-C3C2-4DDC-9449-9CB4BDC15317}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Análisis de procesos</t>
   </si>
@@ -89,13 +89,22 @@
     <t>Taladrado</t>
   </si>
   <si>
-    <t>Corte</t>
-  </si>
-  <si>
     <t>Tiempo de Recuperación</t>
   </si>
   <si>
-    <t>Peor caso</t>
+    <t>Empacado Bandeja</t>
+  </si>
+  <si>
+    <t>Empacado Soporte</t>
+  </si>
+  <si>
+    <t>Empacado Mesa</t>
+  </si>
+  <si>
+    <t>3 operarios requeridos</t>
+  </si>
+  <si>
+    <t>1 operario</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -315,11 +324,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,9 +406,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -383,6 +426,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,74 +469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31297</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1442358</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>151213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC8B3DC-DD51-2F4D-F50D-EE1E6EFEBBFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4780190" y="1632857"/>
-          <a:ext cx="2608489" cy="4083677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B35B9D-3ECD-4F6F-AFA1-EEDC6816351D}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +785,7 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -792,43 +794,43 @@
       <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>45017</v>
       </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
@@ -836,119 +838,159 @@
         <v>8</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="5">
-        <v>640</v>
+      <c r="E7" s="13">
+        <v>2160</v>
       </c>
       <c r="F7" s="5">
+        <v>120</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <v>190</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="5">
         <v>180</v>
       </c>
-      <c r="G7" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13">
-        <v>2178</v>
-      </c>
-      <c r="F8" s="5">
-        <v>120</v>
-      </c>
-      <c r="G8" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="F10" s="5">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="26"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>0.55172413793103448</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="10">
         <v>20.689655172413794</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <v>49.305507637292457</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C16" s="10">
         <v>0.54811205846528621</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D16" s="10">
         <v>20.554202192448233</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <v>49.148579780755178</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C17" s="10">
         <v>0.56863054809666724</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D17" s="10">
         <v>21.323645553625024</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E17" s="10">
         <v>49.873424419522991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>